--- a/Assignment/HW3/FP_heads_0.01.xlsx
+++ b/Assignment/HW3/FP_heads_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hws-PortilloD/Assignment/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E954A7F2-9A80-4CAA-A54C-621A55EC6AB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5B94A95E-A723-44EB-9295-A29FBFA380E1}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{E954A7F2-9A80-4CAA-A54C-621A55EC6AB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4BD6626A-33FB-455C-9F61-E1E05CEA0B6F}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP_heads" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>K_incl</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>k_overall</t>
+  </si>
+  <si>
+    <t>dH1</t>
+  </si>
+  <si>
+    <t>dH2</t>
+  </si>
+  <si>
+    <t>dH3</t>
+  </si>
+  <si>
+    <t>avg dH</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>k_s</t>
   </si>
 </sst>
 </file>
@@ -617,6 +635,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compare K harmonic with Keq</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -627,184 +700,74 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>center fluxe</c:v>
+            <c:v>K harm</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>flux!$A$1:$Y$1</c:f>
+              <c:f>keq_h!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>flux!$A$13:$Y$13</c:f>
+              <c:f>keq_h!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.5397881999999998</c:v>
+                  <c:v>3.7836325705638198E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5180992999999998</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4715817000000002</c:v>
+                  <c:v>1.3020830000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3930924</c:v>
+                  <c:v>1.429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2693371999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0764464999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7710927000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2734500999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4428049000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11248799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.2881635000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.275499E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.2754999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.2881649999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11248799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4428048</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2734494000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.7710916999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.0764458000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2693367000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.3930921999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4715815000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5180988000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.5397889999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +775,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DAF1-43F8-BBB2-11E96DA04A30}"/>
+              <c16:uniqueId val="{00000000-1A6B-4A86-BB83-34614D063A49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -820,184 +783,74 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>row20</c:v>
+            <c:v>keq</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>flux!$A$1:$Y$1</c:f>
+              <c:f>keq_h!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>flux!$A$19:$Y$19</c:f>
+              <c:f>keq_h!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7471101</c:v>
+                  <c:v>0.94870486899999984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7493408000000001</c:v>
+                  <c:v>0.96645000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7554953000000002</c:v>
+                  <c:v>1.0416000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.769536</c:v>
+                  <c:v>1.1168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7990081</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.857224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9659870000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1557902999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4507064999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8017893000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9512423999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9967709999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.9967712999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.9512419999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8017893000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4507064999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.1557909999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9659870000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.857224</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7990080000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7695357999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7554949999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.7493408000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.7471092000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1.1338200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,200 +858,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DAF1-43F8-BBB2-11E96DA04A30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>row5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>flux!$A$1:$Y$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>flux!$A$6:$Y$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>3.910444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9197874000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9392390000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9702592000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0148029999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0747795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.150944</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2409949999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3372539999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.4258309999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.4909787000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5246849999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5246849999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4909781999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4258303999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3372539999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2409954000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1509460000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.0747809999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.0148014999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.9702609</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.9392364</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9197875999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.9104437999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DAF1-43F8-BBB2-11E96DA04A30}"/>
+              <c16:uniqueId val="{00000002-1A6B-4A86-BB83-34614D063A49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1210,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="858546623"/>
-        <c:axId val="858545375"/>
+        <c:axId val="1770100271"/>
+        <c:axId val="1770106927"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="858546623"/>
+        <c:axId val="1770100271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,6 +894,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K Inclusion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1271,12 +986,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858545375"/>
+        <c:crossAx val="1770106927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="858545375"/>
+        <c:axId val="1770106927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,6 +1011,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Keq</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1333,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="858546623"/>
+        <c:crossAx val="1770100271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1345,6 +1115,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1468,7 +1269,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>K compare</c:v>
+            <c:v>K arithmetic</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1522,7 +1323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>keq_a!$I$9:$I$13</c:f>
+              <c:f>keq_a!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1610,19 +1411,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.94870486899999984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.96645000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0416000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01</c:v>
+                  <c:v>1.1168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.1338200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,6 +1688,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3047,23 +2879,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22248EF8-70AD-409E-B210-2A87352558F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FD72CE-FC27-44D1-8359-1494E984A15A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
@@ -5442,10 +5274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDDFE79-099C-4955-BA83-1FB514B626D7}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7552,99 +7384,540 @@
         <v>4.0000000480000004</v>
       </c>
     </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <f>AVERAGE(X2:X26)</f>
+        <v>3.7948195639999995</v>
+      </c>
+      <c r="Z27">
+        <f>AVERAGE(Z2:Z26)</f>
+        <v>3.6430267555120008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(A2:A26)</f>
+        <v>3.7948194759999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28*25</f>
+        <v>94.870486899999975</v>
+      </c>
+      <c r="B29">
+        <f>A28/25</f>
+        <v>0.15179277903999996</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f>B29/((20-10)/100)</f>
+        <v>1.5179277903999995</v>
+      </c>
+      <c r="G29">
+        <f>IF(A28=X27,A28,X27)</f>
+        <v>3.7948195639999995</v>
+      </c>
+      <c r="H29">
+        <f>A28</f>
+        <v>3.7948194759999989</v>
+      </c>
+      <c r="I29">
+        <f>X27</f>
+        <v>3.7948195639999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f>B29/10/10</f>
+        <v>1.5179277903999997E-3</v>
+      </c>
+      <c r="F30">
+        <f>B29/(10/10)</f>
+        <v>0.15179277903999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f>A29/10/10</f>
+        <v>0.94870486899999984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851D9643-2324-482C-A483-5849CD2676AE}">
+  <dimension ref="A2:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <f>flux!E31</f>
+        <v>0.94870486899999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>FP_heads!A11-FP_heads!I11</f>
+        <v>2.8468799999999987</v>
+      </c>
+      <c r="C4">
+        <f>FP_heads!J11-FP_heads!O11</f>
+        <v>2.8606600000000011</v>
+      </c>
+      <c r="D4">
+        <f>FP_heads!P11-FP_heads!Y11</f>
+        <v>3.2564139999999995</v>
+      </c>
+      <c r="F4">
+        <f>24/((B12/B28)+(C12/C28)+(D12/D28))</f>
+        <v>0.90807181693531669</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <f>keq_a!J4</f>
+        <v>0.96645000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>FP_heads!A12-FP_heads!I12</f>
+        <v>2.6565650000000005</v>
+      </c>
+      <c r="C5">
+        <f>FP_heads!J12-FP_heads!O12</f>
+        <v>3.6219129999999993</v>
+      </c>
+      <c r="D5">
+        <f>FP_heads!P12-FP_heads!Y12</f>
+        <v>2.8671000000000006</v>
+      </c>
+      <c r="F5">
+        <f>F4/24</f>
+        <v>3.7836325705638198E-2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>keq_a!J5</f>
+        <v>1.0416000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>FP_heads!A13-FP_heads!I13</f>
+        <v>2.531288</v>
+      </c>
+      <c r="C6">
+        <f>FP_heads!J13-FP_heads!O13</f>
+        <v>4.0807969999999987</v>
+      </c>
+      <c r="D6">
+        <f>FP_heads!P13-FP_heads!Y13</f>
+        <v>2.6755689999999994</v>
+      </c>
+      <c r="F6">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1.01</v>
+      </c>
+      <c r="J6">
+        <f>keq_a!J6</f>
+        <v>1.1168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>FP_heads!A14-FP_heads!I14</f>
+        <v>2.4890770000000018</v>
+      </c>
+      <c r="C7">
+        <f>FP_heads!J14-FP_heads!O14</f>
+        <v>4.2105870000000003</v>
+      </c>
+      <c r="D7">
+        <f>FP_heads!P14-FP_heads!Y14</f>
+        <v>2.61707</v>
+      </c>
+      <c r="F7">
+        <v>1.3020830000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>1.05</v>
+      </c>
+      <c r="J7">
+        <f>keq_a!J7</f>
+        <v>1.1338200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>FP_heads!A15-FP_heads!I15</f>
+        <v>2.531288</v>
+      </c>
+      <c r="C8">
+        <f>FP_heads!J15-FP_heads!O15</f>
+        <v>4.0807969999999987</v>
+      </c>
+      <c r="D8">
+        <f>FP_heads!P15-FP_heads!Y15</f>
+        <v>2.6755689999999994</v>
+      </c>
+      <c r="F8">
+        <v>1.429</v>
+      </c>
+      <c r="G8">
+        <v>0.59550000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>FP_heads!A16-FP_heads!I16</f>
+        <v>2.6565650000000005</v>
+      </c>
+      <c r="C9">
+        <f>FP_heads!J16-FP_heads!O16</f>
+        <v>3.6219129999999993</v>
+      </c>
+      <c r="D9">
+        <f>FP_heads!P16-FP_heads!Y16</f>
+        <v>2.8671000000000006</v>
+      </c>
+      <c r="F9">
+        <v>1.45</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>FP_heads!A17-FP_heads!I17</f>
+        <v>2.8468799999999987</v>
+      </c>
+      <c r="C10">
+        <f>FP_heads!J17-FP_heads!O17</f>
+        <v>2.8606600000000011</v>
+      </c>
+      <c r="D10">
+        <f>FP_heads!P17-FP_heads!Y17</f>
+        <v>3.2564139999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B4:B10)</f>
+        <v>2.6512204285714285</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="0">AVERAGE(C4:C10)</f>
+        <v>3.619618142857143</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.8878908571428568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>AVERAGE(flux!A11:I11)</f>
+        <v>3.6182387888888892</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(flux!J11:O11)</f>
+        <v>5.811950416666666</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(flux!P11:Y11)</f>
+        <v>3.2564148400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>AVERAGE(flux!A12:I12)</f>
+        <v>3.1856666555555559</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(flux!J12:O12)</f>
+        <v>9.2134589666666655E-2</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(flux!P12:Y12)</f>
+        <v>2.8670997200000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>AVERAGE(flux!A13:I13)</f>
+        <v>2.9728547777777781</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(flux!J13:O13)</f>
+        <v>9.6041542500000007E-2</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(flux!P13:Y13)</f>
+        <v>2.6755689899999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>AVERAGE(flux!A14:I14)</f>
+        <v>2.9078558555555554</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(flux!J14:O14)</f>
+        <v>9.7573560000000004E-2</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(flux!P14:Y14)</f>
+        <v>2.6170699800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>AVERAGE(flux!A15:I15)</f>
+        <v>2.9728546333333332</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(flux!J15:O15)</f>
+        <v>9.6041538333333343E-2</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(flux!P15:Y15)</f>
+        <v>2.6755690700000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>AVERAGE(flux!A16:I16)</f>
+        <v>3.1856665444444441</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(flux!J16:O16)</f>
+        <v>9.2134585333333338E-2</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(flux!P16:Y16)</f>
+        <v>2.86709974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>AVERAGE(flux!A17:I17)</f>
+        <v>3.6182388222222222</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(flux!J17:O17)</f>
+        <v>5.8119503333333329</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(flux!P17:Y17)</f>
+        <v>3.2564147700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f>B13/(B4/10)</f>
+        <v>12.709488242879541</v>
+      </c>
+      <c r="C21">
+        <f>C13/(C4/10)</f>
+        <v>20.31681645727442</v>
+      </c>
+      <c r="D21">
+        <f>D13/(D4/10)</f>
+        <v>10.000002579524596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" ref="B22:D27" si="1">B14/(B5/10)</f>
+        <v>11.991675925699372</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.25438101264902463</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>9.9999990234034364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>11.744435156243691</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.23534996349977721</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>9.9999999626247735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>11.682466454655895</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.23173386513566874</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>9.9999999235786579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>11.744434585607538</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.23534995328935346</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>10.000000261626596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>11.991675507448315</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.25438100068481312</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>9.9999990931603335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>12.709488359966784</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>20.316816165966355</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>10.000002364564212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>AVERAGE(B22:B26)</f>
+        <v>11.830937525930961</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C22:C26)</f>
+        <v>0.24223915905172744</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="2">AVERAGE(D21:D27)</f>
+        <v>10.000000458354659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851D9643-2324-482C-A483-5849CD2676AE}">
-  <dimension ref="H2:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H3">
-        <v>0.01</v>
-      </c>
-      <c r="I3">
-        <v>0.2</v>
-      </c>
-      <c r="J3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>0.7</v>
-      </c>
-      <c r="J4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>1.01</v>
-      </c>
-      <c r="J6">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>1.05</v>
-      </c>
-      <c r="J7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B67EEAB-A751-4E6E-8208-A497297F65AD}">
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,10 +7955,12 @@
         <v>0.01</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <f>D12</f>
+        <v>0.80549389811193384</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <f>flux!E31</f>
+        <v>0.94870486899999984</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -7709,10 +7984,10 @@
         <v>0.1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.93084946189158502</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.96645000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -7736,10 +8011,10 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.76799975007093724</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>1.0416000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -7763,10 +8038,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.3</v>
+        <v>2.0332539136200616</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>1.1168</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -7790,10 +8065,10 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>5.2</v>
+        <v>5.2638720097142846</v>
       </c>
       <c r="J7">
-        <v>1.0900000000000001</v>
+        <v>1.1338200000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -7831,10 +8106,6 @@
         <f>C9/((FP_heads!A16-FP_heads!Y16)/10)</f>
         <v>2.3157921524799998</v>
       </c>
-      <c r="I9">
-        <f>D12</f>
-        <v>0.80549389811193384</v>
-      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -7853,27 +8124,11 @@
         <f>C10/((FP_heads!A17-FP_heads!Y17)/10)</f>
         <v>3.9999999639999997</v>
       </c>
-      <c r="I10">
-        <v>0.93084946189158502</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <v>0.76799975007093724</v>
-      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>AVERAGE(D4:D10)/10</f>
         <v>0.80549389811193384</v>
-      </c>
-      <c r="I12">
-        <v>2.0332539136200616</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I13">
-        <v>5.2638720097142846</v>
       </c>
     </row>
   </sheetData>
